--- a/Team-Data/2013-14/12-17-2013-14.xlsx
+++ b/Team-Data/2013-14/12-17-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF2" t="n">
         <v>12</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>11</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -777,10 +844,10 @@
         <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
         <v>17</v>
@@ -807,7 +874,7 @@
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -819,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -932,16 +999,16 @@
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>26</v>
@@ -968,13 +1035,13 @@
         <v>13</v>
       </c>
       <c r="AR3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS3" t="n">
         <v>19</v>
       </c>
       <c r="AT3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU3" t="n">
         <v>30</v>
@@ -998,7 +1065,7 @@
         <v>26</v>
       </c>
       <c r="BB3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC3" t="n">
         <v>16</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-4.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1168,7 +1235,7 @@
         <v>27</v>
       </c>
       <c r="AX4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY4" t="n">
         <v>6</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -1212,94 +1279,94 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
         <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.44</v>
+        <v>0.417</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="J5" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.417</v>
+        <v>0.416</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="M5" t="n">
         <v>15.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.297</v>
+        <v>0.288</v>
       </c>
       <c r="O5" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P5" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q5" t="n">
         <v>0.712</v>
       </c>
       <c r="R5" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="S5" t="n">
-        <v>32.4</v>
+        <v>32.2</v>
       </c>
       <c r="T5" t="n">
         <v>43.2</v>
       </c>
       <c r="U5" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="V5" t="n">
         <v>13.4</v>
       </c>
       <c r="W5" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
         <v>5.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>90.59999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.7</v>
+        <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>24</v>
@@ -1308,10 +1375,10 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL5" t="n">
         <v>30</v>
@@ -1323,7 +1390,7 @@
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
         <v>6</v>
@@ -1332,7 +1399,7 @@
         <v>25</v>
       </c>
       <c r="AR5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS5" t="n">
         <v>13</v>
@@ -1344,7 +1411,7 @@
         <v>26</v>
       </c>
       <c r="AV5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW5" t="n">
         <v>28</v>
@@ -1353,10 +1420,10 @@
         <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AZ5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA5" t="n">
         <v>7</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -1472,19 +1539,19 @@
         <v>-1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
         <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI6" t="n">
         <v>28</v>
@@ -1517,10 +1584,10 @@
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="n">
         <v>15</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -1576,49 +1643,49 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.375</v>
+        <v>0.391</v>
       </c>
       <c r="H7" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I7" t="n">
-        <v>36.3</v>
+        <v>35.8</v>
       </c>
       <c r="J7" t="n">
-        <v>84.8</v>
+        <v>84</v>
       </c>
       <c r="K7" t="n">
-        <v>0.428</v>
+        <v>0.426</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.356</v>
+        <v>0.35</v>
       </c>
       <c r="O7" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="P7" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R7" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S7" t="n">
         <v>31.8</v>
@@ -1627,73 +1694,73 @@
         <v>43.5</v>
       </c>
       <c r="U7" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="V7" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="W7" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X7" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="Y7" t="n">
         <v>5.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
         <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
         <v>26</v>
       </c>
       <c r="AL7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="n">
         <v>20</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AN7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO7" t="n">
         <v>21</v>
       </c>
-      <c r="AN7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>23</v>
-      </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>9</v>
@@ -1705,10 +1772,10 @@
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AW7" t="n">
         <v>17</v>
@@ -1720,13 +1787,13 @@
         <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA7" t="n">
         <v>23</v>
       </c>
       <c r="BB7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BC7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>1.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>24</v>
@@ -1854,10 +1921,10 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL8" t="n">
         <v>6</v>
@@ -1902,7 +1969,7 @@
         <v>5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>28</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -1940,67 +2007,67 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
         <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>0.583</v>
+        <v>0.609</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J9" t="n">
-        <v>84.90000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L9" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M9" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.362</v>
+        <v>0.366</v>
       </c>
       <c r="O9" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P9" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.711</v>
+        <v>0.71</v>
       </c>
       <c r="R9" t="n">
         <v>13</v>
       </c>
       <c r="S9" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T9" t="n">
-        <v>46.2</v>
+        <v>46.3</v>
       </c>
       <c r="U9" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V9" t="n">
         <v>14.6</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
         <v>5.9</v>
@@ -2009,25 +2076,25 @@
         <v>21.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.8</v>
+        <v>102.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>8</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH9" t="n">
         <v>24</v>
@@ -2036,10 +2103,10 @@
         <v>10</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
         <v>14</v>
@@ -2048,28 +2115,28 @@
         <v>15</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
         <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR9" t="n">
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT9" t="n">
         <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV9" t="n">
         <v>9</v>
@@ -2078,7 +2145,7 @@
         <v>21</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>23</v>
@@ -2093,7 +2160,7 @@
         <v>12</v>
       </c>
       <c r="BC9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -2206,28 +2273,28 @@
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
@@ -2254,7 +2321,7 @@
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
@@ -2263,10 +2330,10 @@
         <v>10</v>
       </c>
       <c r="AY10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
         <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>0.538</v>
+        <v>0.52</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J11" t="n">
-        <v>82.59999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L11" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.41</v>
+        <v>0.416</v>
       </c>
       <c r="O11" t="n">
         <v>16.6</v>
@@ -2343,52 +2410,52 @@
         <v>22.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.731</v>
+        <v>0.732</v>
       </c>
       <c r="R11" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="S11" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="T11" t="n">
-        <v>45.5</v>
+        <v>45</v>
       </c>
       <c r="U11" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V11" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="W11" t="n">
         <v>7.4</v>
       </c>
       <c r="X11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z11" t="n">
         <v>22.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB11" t="n">
         <v>103</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -2397,43 +2464,43 @@
         <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
         <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM11" t="n">
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO11" t="n">
         <v>17</v>
       </c>
       <c r="AP11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
         <v>28</v>
@@ -2442,7 +2509,7 @@
         <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
         <v>13</v>
@@ -2451,7 +2518,7 @@
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>4.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2588,7 +2655,7 @@
         <v>3</v>
       </c>
       <c r="AL12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
@@ -2624,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2761,7 +2828,7 @@
         <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ13" t="n">
         <v>27</v>
@@ -2776,13 +2843,13 @@
         <v>19</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ13" t="n">
         <v>7</v>
@@ -2797,7 +2864,7 @@
         <v>10</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV13" t="n">
         <v>16</v>
@@ -2806,7 +2873,7 @@
         <v>20</v>
       </c>
       <c r="AX13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY13" t="n">
         <v>16</v>
@@ -2815,7 +2882,7 @@
         <v>8</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -2946,7 +3013,7 @@
         <v>14</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
@@ -2967,10 +3034,10 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS14" t="n">
         <v>12</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
         <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>0.48</v>
+        <v>0.458</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
@@ -3050,76 +3117,76 @@
         <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>84.7</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.443</v>
+        <v>0.441</v>
       </c>
       <c r="L15" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.383</v>
+        <v>0.386</v>
       </c>
       <c r="O15" t="n">
         <v>15.6</v>
       </c>
       <c r="P15" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.737</v>
+        <v>0.735</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="S15" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T15" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="U15" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="V15" t="n">
         <v>14.9</v>
       </c>
       <c r="W15" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X15" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA15" t="n">
         <v>18.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-3.1</v>
+        <v>-3.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
         <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
         <v>24</v>
@@ -3128,13 +3195,13 @@
         <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AK15" t="n">
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM15" t="n">
         <v>2</v>
@@ -3146,37 +3213,37 @@
         <v>26</v>
       </c>
       <c r="AP15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS15" t="n">
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV15" t="n">
         <v>14</v>
       </c>
       <c r="AW15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA15" t="n">
         <v>29</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -3214,106 +3281,106 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>0.417</v>
+        <v>0.435</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J16" t="n">
-        <v>81.3</v>
+        <v>80.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.449</v>
+        <v>0.451</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
       <c r="O16" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P16" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R16" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="S16" t="n">
         <v>30.7</v>
       </c>
       <c r="T16" t="n">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="U16" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V16" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W16" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
         <v>4</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>-3.8</v>
+        <v>-3.7</v>
       </c>
       <c r="AD16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF16" t="n">
         <v>14</v>
       </c>
-      <c r="AE16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF16" t="n">
+      <c r="AG16" t="n">
         <v>18</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>20</v>
       </c>
       <c r="AH16" t="n">
         <v>12</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>20</v>
@@ -3334,13 +3401,13 @@
         <v>12</v>
       </c>
       <c r="AR16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS16" t="n">
         <v>24</v>
       </c>
       <c r="AT16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU16" t="n">
         <v>16</v>
@@ -3349,13 +3416,13 @@
         <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX16" t="n">
         <v>27</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3489,7 +3556,7 @@
         <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3501,16 +3568,16 @@
         <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3528,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,19 +3735,19 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM18" t="n">
         <v>23</v>
@@ -3698,7 +3765,7 @@
         <v>10</v>
       </c>
       <c r="AR18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS18" t="n">
         <v>28</v>
@@ -3713,7 +3780,7 @@
         <v>26</v>
       </c>
       <c r="AW18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>3.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
@@ -3847,7 +3914,7 @@
         <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
         <v>21</v>
@@ -3865,13 +3932,13 @@
         <v>11</v>
       </c>
       <c r="AM19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3886,7 +3953,7 @@
         <v>14</v>
       </c>
       <c r="AT19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU19" t="n">
         <v>8</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" t="n">
         <v>11</v>
       </c>
       <c r="F20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>0.478</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>48.9</v>
       </c>
       <c r="I20" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="J20" t="n">
-        <v>86.7</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.448</v>
+        <v>0.452</v>
       </c>
       <c r="L20" t="n">
         <v>6.6</v>
@@ -3972,76 +4039,76 @@
         <v>17.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.383</v>
+        <v>0.388</v>
       </c>
       <c r="O20" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="P20" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.772</v>
+        <v>0.774</v>
       </c>
       <c r="R20" t="n">
         <v>13.2</v>
       </c>
       <c r="S20" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T20" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U20" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V20" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W20" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X20" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Z20" t="n">
         <v>21.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>102.5</v>
+        <v>103</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF20" t="n">
         <v>11</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>3</v>
       </c>
       <c r="AI20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>24</v>
@@ -4050,19 +4117,19 @@
         <v>27</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ20" t="n">
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS20" t="n">
         <v>26</v>
@@ -4071,10 +4138,10 @@
         <v>13</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
         <v>3</v>
@@ -4083,19 +4150,19 @@
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
         <v>21</v>
       </c>
       <c r="BA20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4217,7 +4284,7 @@
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
         <v>14</v>
@@ -4274,7 +4341,7 @@
         <v>24</v>
       </c>
       <c r="BB21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
         <v>23</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -4306,70 +4373,70 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.833</v>
+        <v>0.826</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="J22" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L22" t="n">
         <v>6.2</v>
       </c>
       <c r="M22" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.329</v>
+        <v>0.334</v>
       </c>
       <c r="O22" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="P22" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.821</v>
       </c>
       <c r="R22" t="n">
         <v>11.4</v>
       </c>
       <c r="S22" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="T22" t="n">
-        <v>47.5</v>
+        <v>47.3</v>
       </c>
       <c r="U22" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V22" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
         <v>6.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z22" t="n">
         <v>22</v>
@@ -4378,28 +4445,28 @@
         <v>20.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
         <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ22" t="n">
         <v>13</v>
@@ -4414,16 +4481,16 @@
         <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP22" t="n">
         <v>4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>12</v>
@@ -4435,19 +4502,19 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV22" t="n">
         <v>27</v>
       </c>
       <c r="AW22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ22" t="n">
         <v>24</v>
@@ -4459,7 +4526,7 @@
         <v>3</v>
       </c>
       <c r="BC22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>25</v>
@@ -4587,7 +4654,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>15</v>
@@ -4596,7 +4663,7 @@
         <v>14</v>
       </c>
       <c r="AN23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO23" t="n">
         <v>24</v>
@@ -4629,7 +4696,7 @@
         <v>20</v>
       </c>
       <c r="AY23" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ23" t="n">
         <v>13</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4848,7 @@
         <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
         <v>17</v>
@@ -4793,7 +4860,7 @@
         <v>10</v>
       </c>
       <c r="AS24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT24" t="n">
         <v>8</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
         <v>8</v>
@@ -4951,7 +5018,7 @@
         <v>21</v>
       </c>
       <c r="AK25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL25" t="n">
         <v>5</v>
@@ -4981,16 +5048,16 @@
         <v>21</v>
       </c>
       <c r="AU25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW25" t="n">
         <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>4</v>
@@ -5002,10 +5069,10 @@
         <v>14</v>
       </c>
       <c r="BB25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.846</v>
+        <v>0.84</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,67 +5119,67 @@
         <v>39.8</v>
       </c>
       <c r="J26" t="n">
-        <v>86.8</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K26" t="n">
         <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="M26" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="N26" t="n">
-        <v>0.415</v>
+        <v>0.412</v>
       </c>
       <c r="O26" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R26" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="T26" t="n">
-        <v>46</v>
+        <v>45.6</v>
       </c>
       <c r="U26" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V26" t="n">
         <v>14.3</v>
       </c>
       <c r="W26" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD26" t="n">
         <v>6</v>
-      </c>
-      <c r="X26" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>108.3</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5130,37 +5197,37 @@
         <v>2</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP26" t="n">
         <v>15</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS26" t="n">
         <v>10</v>
       </c>
       <c r="AT26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU26" t="n">
         <v>4</v>
@@ -5187,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -5216,58 +5283,58 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>0.304</v>
+        <v>0.318</v>
       </c>
       <c r="H27" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>36.3</v>
+        <v>36.6</v>
       </c>
       <c r="J27" t="n">
-        <v>83.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.433</v>
+        <v>0.435</v>
       </c>
       <c r="L27" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M27" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="O27" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="P27" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="R27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="T27" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="U27" t="n">
         <v>20.6</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="O27" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="P27" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.792</v>
-      </c>
-      <c r="R27" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>31</v>
-      </c>
-      <c r="T27" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="U27" t="n">
-        <v>20.5</v>
       </c>
       <c r="V27" t="n">
         <v>14</v>
@@ -5285,22 +5352,22 @@
         <v>23.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.7</v>
+        <v>-2.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>26</v>
@@ -5309,28 +5376,28 @@
         <v>11</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
         <v>5</v>
@@ -5345,25 +5412,25 @@
         <v>18</v>
       </c>
       <c r="AU27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV27" t="n">
         <v>5</v>
       </c>
       <c r="AW27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
       </c>
       <c r="BA27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB27" t="n">
         <v>17</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -5476,10 +5543,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF28" t="n">
         <v>4</v>
@@ -5503,7 +5570,7 @@
         <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN28" t="n">
         <v>3</v>
@@ -5524,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5548,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>0.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5673,13 +5740,13 @@
         <v>5</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL29" t="n">
         <v>16</v>
@@ -5691,7 +5758,7 @@
         <v>22</v>
       </c>
       <c r="AO29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP29" t="n">
         <v>9</v>
@@ -5706,7 +5773,7 @@
         <v>23</v>
       </c>
       <c r="AT29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU29" t="n">
         <v>29</v>
@@ -5715,19 +5782,19 @@
         <v>13</v>
       </c>
       <c r="AW29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX29" t="n">
         <v>14</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ29" t="n">
         <v>27</v>
       </c>
       <c r="BA29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5928,7 @@
         <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
         <v>27</v>
@@ -5879,7 +5946,7 @@
         <v>19</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5894,7 +5961,7 @@
         <v>25</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>-1.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF31" t="n">
         <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH31" t="n">
         <v>1</v>
@@ -6052,7 +6119,7 @@
         <v>12</v>
       </c>
       <c r="AN31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO31" t="n">
         <v>28</v>
@@ -6061,10 +6128,10 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="n">
         <v>17</v>
@@ -6073,7 +6140,7 @@
         <v>20</v>
       </c>
       <c r="AU31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-17-2013-14</t>
+          <t>2013-12-17</t>
         </is>
       </c>
     </row>
